--- a/Microcontroller Team Noobcoder Protocol.xlsx
+++ b/Microcontroller Team Noobcoder Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\winter20-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D6E158-C8EA-4FBE-AE74-22E0A95847EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5CC92-2C21-47E4-A84F-6B01E8B3CC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Microcontroller Team 1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Coding and connecting circuit through TinkerCAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State Diagram for Pedestrian And Car TLS</t>
   </si>
 </sst>
 </file>
@@ -375,64 +378,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>

--- a/Microcontroller Team Noobcoder Protocol.xlsx
+++ b/Microcontroller Team Noobcoder Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5CC92-2C21-47E4-A84F-6B01E8B3CC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6559E6-FA18-4688-9E5C-BADCA3DA54B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Microcontroller Team 1</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t xml:space="preserve"> State Diagram for Pedestrian And Car TLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State Diagram for Pedestrian And Car TLS And Bus Button</t>
+  </si>
+  <si>
+    <t>Class Diagram for Pedestrian And Car TLS And Bus Button</t>
+  </si>
+  <si>
+    <t>Coding for Arduino Circuit Pedestrian &amp;Car traffic light And Bus Button</t>
+  </si>
+  <si>
+    <t>Coding and connecting circuit through TinkerCAD And Bus Button</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,9 +401,11 @@
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -401,13 +415,16 @@
       <c r="E1">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -417,8 +434,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -428,8 +448,11 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -439,8 +462,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -450,8 +476,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>

--- a/Microcontroller Team Noobcoder Protocol.xlsx
+++ b/Microcontroller Team Noobcoder Protocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\winter20-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6559E6-FA18-4688-9E5C-BADCA3DA54B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDB34B-3D72-48E4-86BC-61E61EE0C5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Microcontroller Team 1</t>
   </si>
@@ -73,13 +73,43 @@
   </si>
   <si>
     <t>Coding and connecting circuit through TinkerCAD And Bus Button</t>
+  </si>
+  <si>
+    <t>TO DO/UPDATE/FEEDBACK</t>
+  </si>
+  <si>
+    <t>Prepare Slide for Smart Home</t>
+  </si>
+  <si>
+    <t>Need to add advantages &amp; disadvatages</t>
+  </si>
+  <si>
+    <t>Restructure it become more abstract</t>
+  </si>
+  <si>
+    <t>Make points &amp; reduce sentences</t>
+  </si>
+  <si>
+    <t>Add more references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add disadvantage </t>
+  </si>
+  <si>
+    <t>Add and edit references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Advantages </t>
+  </si>
+  <si>
+    <t>Restructure the slide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +117,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,14 +159,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,99 +450,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="45.21875" customWidth="1"/>
     <col min="5" max="5" width="44.44140625" customWidth="1"/>
     <col min="7" max="7" width="57.77734375" customWidth="1"/>
+    <col min="9" max="9" width="33.77734375" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>42</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>43</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Microcontroller Team Noobcoder Protocol.xlsx
+++ b/Microcontroller Team Noobcoder Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDB34B-3D72-48E4-86BC-61E61EE0C5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D191BBC-66BC-4948-910E-A3BE0EFF9F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Microcontroller Team 1</t>
   </si>
@@ -93,23 +93,29 @@
     <t>Add more references</t>
   </si>
   <si>
-    <t xml:space="preserve">Add disadvantage </t>
-  </si>
-  <si>
     <t>Add and edit references</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Advantages </t>
-  </si>
-  <si>
     <t>Restructure the slide</t>
+  </si>
+  <si>
+    <t>ATTENDANCE</t>
+  </si>
+  <si>
+    <t>All attended</t>
+  </si>
+  <si>
+    <t>Add Advantages &amp; Sketch Prototype</t>
+  </si>
+  <si>
+    <t>Add disadvantage &amp; Sketch use case diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +137,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +162,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -159,17 +177,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,24 +471,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="45.21875" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="57.77734375" customWidth="1"/>
-    <col min="9" max="9" width="33.77734375" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" customWidth="1"/>
+    <col min="7" max="7" width="62.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="11" max="11" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -487,12 +508,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -509,10 +530,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -529,10 +550,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -549,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -569,15 +590,15 @@
         <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -588,19 +609,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="I13" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="I15" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Microcontroller Team Noobcoder Protocol.xlsx
+++ b/Microcontroller Team Noobcoder Protocol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\winter20-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D191BBC-66BC-4948-910E-A3BE0EFF9F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C74C9-E8F4-4959-8530-224BAF91E4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,10 +190,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,10 +474,10 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -488,7 +488,7 @@
     <col min="11" max="11" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -508,12 +508,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -533,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -553,7 +553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -593,12 +593,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -609,12 +609,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -631,12 +631,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I15" s="3" t="s">
         <v>25</v>
       </c>

--- a/Microcontroller Team Noobcoder Protocol.xlsx
+++ b/Microcontroller Team Noobcoder Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\winter20-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C74C9-E8F4-4959-8530-224BAF91E4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17EF649-7A63-4731-9C3C-AADE445F313F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,10 +190,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -488,7 +488,7 @@
     <col min="11" max="11" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -507,13 +507,43 @@
       <c r="K1" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" s="1">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -533,7 +563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -553,7 +583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -573,7 +603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -593,12 +623,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -609,12 +639,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31">
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -631,12 +661,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31">
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31">
       <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
